--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_missing_rqd_vals.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_missing_rqd_vals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/example_data/testing_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC05D3-AB01-624F-8497-9571D8F17102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E9D4F-3F48-1149-B567-06972B0B3116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="13720" windowWidth="29900" windowHeight="12800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="13720" windowWidth="29900" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Animals" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Tissues" sheetId="4" r:id="rId4"/>
     <sheet name="Infusions" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -36,6 +36,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
 </t>
@@ -45,6 +46,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -57,10 +59,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
-          <t>Genotype (optional)
-	-Lance Parsons</t>
+          <t xml:space="preserve">Genotype (optional)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -71,10 +82,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
-          <t>Animal Body Weight (g) (optional)
-	-Lance Parsons</t>
+          <t xml:space="preserve">Animal Body Weight (g) (optional)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -85,6 +105,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>The infusion given to this animal.
@@ -105,14 +126,79 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
-          <t>Concentration(s) of infusate in this infusion solution (in mM).
-Multiple tracers in a single infusion should have concentrations specified as comma separated lists.
-	-Lance Parsons
-Correction based on issue #400:
-Multiple tracers in a single infusion should have concentrations specified as a semi-colon delimited list in the same order and cardinality as the list of semi-colon delimited tracer encodings in the Infusate column.
-	-Robert Leach</t>
+          <t xml:space="preserve">Concentration(s) of infusate in this infusion solution (in mM).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Multiple tracers in a single infusion should have concentrations specified as comma separated lists.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Correction based on issue #400:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Multiple tracers in a single infusion should have concentrations specified as a semi-colon delimited list in the same order and cardinality as the list of semi-colon delimited tracer encodings in the Infusate column.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Robert Leach</t>
         </r>
       </text>
     </comment>
@@ -123,6 +209,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Volume of infusate solution infused in microliters (ul) per minute, per gram of mouse body weight
@@ -143,6 +230,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Animal feeding status: have the mice been fasted or fed?
@@ -159,10 +247,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
-          <t>Short, unique identifier for an animal treatment protocol. Details should be provided in the Treatments table.
-	-Lance Parsons</t>
+          <t xml:space="preserve">Short, unique identifier for an animal treatment protocol. Details should be provided in the Treatments table.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -173,6 +270,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">An identifier for the "experiment", which is typically a collection of mice similar infusion parameters. this is loosely defined based on the person who did the infusions. Here, there is a consistant format: two initials for the lab member who did the infusion and then a number (date?)
 </t>
@@ -182,6 +280,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -194,6 +293,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">A long form description for the study which may include the experimental design process, citations, and other relevant details
 </t>
@@ -203,6 +303,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -225,6 +326,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Name of the sample, must match the sample name in AccuCor file
 </t>
@@ -234,6 +336,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -246,6 +349,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Date the sample was collected (YYYY-MM-DD)
@@ -260,6 +364,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Name of researcher who collected the sample
 </t>
@@ -269,6 +374,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -281,6 +387,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Tissue type
@@ -297,6 +404,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Minutes after infusion that the sample was collected
@@ -311,10 +419,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
-          <t>Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
-	-Lance Parsons</t>
+          <t xml:space="preserve">Unique identifier for the animal (mouse) the sample was collected from. MUST match the Animal ID in the Animal Table.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">	-Lance Parsons</t>
         </r>
       </text>
     </comment>
@@ -335,6 +452,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Short, unique identifier for an animal treatment protocol. Must match the values provided in the Animals table.
@@ -349,6 +467,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">A thorough description of an animal treatment protocol. This will be useful for searching and filtering, so use standard terms and be as complete as possible.
 </t>
@@ -358,6 +477,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">	-Lance Parsons</t>
         </r>
@@ -370,6 +490,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>this is an example treatment.  If this applies to your animal, please use this treatment.  If this does not apply to your animal, please add a new treatment.  Be as descriptive as possible.
@@ -394,6 +515,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>@mneinast@princeton.edu @matthewmcbride@princeton.edu - I believe I have seen datasets with both "BAT" and "iBAT", which I likely have erroneously merged. Should we add "bat_inquinal" or similar?
@@ -423,6 +545,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Modified to match the description in issue #400 (apart from changing "Tracer column" (which doesn't exist) to "Infusate column"
@@ -673,6 +796,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Individual tracer compounds will be formatted: </t>
     </r>
@@ -713,6 +837,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Mixtures of compounds will be formatted: </t>
     </r>
@@ -730,6 +855,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>. tracer_mix_name is optional</t>
     </r>
@@ -850,7 +976,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -862,40 +988,47 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF9900"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF34A853"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,12 +1036,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -927,11 +1062,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1214,7 +1358,7 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4302,7 +4446,7 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
